--- a/data/other_welfare_facilities/data.xlsx
+++ b/data/other_welfare_facilities/data.xlsx
@@ -565,7 +565,7 @@
         <v>134.025745</v>
       </c>
       <c r="D5" t="str">
-        <v>社団法人高松市シルバー人材センター</v>
+        <v>公益社団法人高松市シルバー人材センター</v>
       </c>
       <c r="E5" t="str">
         <v>高松市西宝町一丁目9-20</v>
